--- a/KOC Grade Tracker Form(1-52).xlsx
+++ b/KOC Grade Tracker Form(1-52).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiren\random-automation-scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiren\random-automation-scripts\chatham-colleges-grades-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AA7B1F-A432-4498-9191-E89F8E5048CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA30CB04-B72C-45FD-B43A-D5A772904AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
   <si>
     <t>Full Name</t>
   </si>
@@ -113,9 +113,6 @@
     <t xml:space="preserve">Midkent college </t>
   </si>
   <si>
-    <t>First Year</t>
-  </si>
-  <si>
     <t>Maths-5</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
   </si>
   <si>
     <t>Midkent college</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business level 3 first year </t>
   </si>
   <si>
     <t>Holcombe Grammar</t>
@@ -247,9 +241,6 @@
     <t xml:space="preserve">Rochester Grammar School for Girls </t>
   </si>
   <si>
-    <t xml:space="preserve">Business level 3  final yeah </t>
-  </si>
-  <si>
     <t xml:space="preserve">Walderslade girls school </t>
   </si>
   <si>
@@ -263,9 +254,6 @@
 Biology - A*
 Chemistry - A*
 Psychology - A*</t>
-  </si>
-  <si>
-    <t>Lv 3 yr2 / yr 13</t>
   </si>
   <si>
     <t>rochester grammar school</t>
@@ -353,9 +341,6 @@
     <t>SCL college Borehamwood FC</t>
   </si>
   <si>
-    <t xml:space="preserve">Second year of college </t>
-  </si>
-  <si>
     <t>Sports and nutrition - Merit</t>
   </si>
   <si>
@@ -389,19 +374,10 @@
     <t xml:space="preserve">Rejoice Udo </t>
   </si>
   <si>
-    <t>Last year of college</t>
-  </si>
-  <si>
     <t>Shalom Mutongi</t>
   </si>
   <si>
     <t>Victoria Adebayo</t>
-  </si>
-  <si>
-    <t>First year of college</t>
-  </si>
-  <si>
-    <t>Year 1 of College</t>
   </si>
   <si>
     <t>English - 5
@@ -642,15 +618,33 @@
     <t>Double Btec sport -DD*
 RE - B</t>
   </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>1st year of college</t>
+  </si>
+  <si>
+    <t>Final year of college</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd year of college </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -719,8 +713,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
-  <autoFilter ref="A1:E35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+  <autoFilter ref="A1:E34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Full Name" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="School You Attend" dataDxfId="3"/>
@@ -1029,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,13 +1097,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1120,103 +1114,103 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -1225,15 +1219,15 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -1248,398 +1242,382 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" t="s">
-        <v>111</v>
+      <c r="D14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>62</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="2" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="C28" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
         <v>78</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="E30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>83</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>23</v>
       </c>
       <c r="B31" t="s">
         <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
         <v>87</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>88</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
         <v>89</v>
       </c>
-      <c r="D32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
